--- a/Group 6 - Decision Log.xlsx
+++ b/Group 6 - Decision Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonn Malmqvist\Documents\TECHCareer\1 Web Application Development CPRG-008-002\Group6\Group 6 Travel Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonn Malmqvist\Documents\TECHCareer\1 Web Application Development CPRG-008-002\Group6\Group 6 Travel Website\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE87065-1A60-4C64-AE43-182FBB7758A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C6A433-BDB5-4A0A-8092-42D277767052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14340" yWindow="-375" windowWidth="14265" windowHeight="11805" xr2:uid="{63A969AC-5FDE-4891-8E14-2DEF714998B9}"/>
+    <workbookView xWindow="-28335" yWindow="-465" windowWidth="28335" windowHeight="15195" xr2:uid="{63A969AC-5FDE-4891-8E14-2DEF714998B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={38877E2C-9560-49FE-B155-8E7F757A8BBE}</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{38877E2C-9560-49FE-B155-8E7F757A8BBE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not required at this time.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -101,16 +119,28 @@
     <t>Identify possible designs/design elements for the redeisgn of the travel agency website.</t>
   </si>
   <si>
-    <t>Create initial mockup of travel agency website based on design suggestions from research.</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
     <t>Design and develop About Page  for the Travel Canada site ensuring fit with overall theme of site.</t>
   </si>
   <si>
-    <t>Based on the mockup design, develop the index page for the Travel Canada site using HTML, CSS &amp; JavaScript.</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Based on the mockup design, develop the index page for the Travel Canada site using HTML, CSS &amp; JavaScript and upload to GitHub.</t>
+  </si>
+  <si>
+    <t>Create initial mockup/template of travel agency website based on design suggestions from research and upload to GitHub.</t>
+  </si>
+  <si>
+    <t>Create Montreal webpage based on established template and upload to GitHub.</t>
+  </si>
+  <si>
+    <t>Create Toronto webpage based on established template and upload to GitHub.</t>
+  </si>
+  <si>
+    <t>Create Calgary webpage based on established template and upload to GitHub.</t>
   </si>
 </sst>
 </file>
@@ -175,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +233,15 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,6 +258,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jonn Malmqvist" id="{FC908F1A-EC91-43C7-879C-F81F0F283099}" userId="f4dbd073aa16a646" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,12 +561,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E7" dT="2021-03-11T13:33:57.52" personId="{FC908F1A-EC91-43C7-879C-F81F0F283099}" id="{38877E2C-9560-49FE-B155-8E7F757A8BBE}">
+    <text>Not required at this time.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D21C9F-BAB2-4562-A09F-4959566F6886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D21C9F-BAB2-4562-A09F-4959566F6886}">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,99 +596,99 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>44260</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>44260</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <f>+B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>44260</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <f>+B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>44263</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <f>+B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>44263</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <f t="shared" ref="B7:B26" si="0">+B6+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -665,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -674,35 +727,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>44265</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>44265</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>44265</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -854,5 +931,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>